--- a/Document/ProjectTime.xlsx
+++ b/Document/ProjectTime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tan.Le\Downloads\ProjectTime\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC6B713-28D3-4296-A3A5-DA3F0A889929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4730566-7011-42A8-9B55-1CB36AC95314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{69F8E2E3-BC91-4612-A8A4-046E5124728D}"/>
   </bookViews>
@@ -2103,12 +2103,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2143,24 +2167,6 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2168,51 +2174,13 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="39" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -2229,26 +2197,95 @@
     <xf numFmtId="0" fontId="13" fillId="19" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="37" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="33" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="34" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="35" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="36" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="34" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="19" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2256,47 +2293,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="34" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="33" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="34" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="35" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="36" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="37" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2766,8 +2766,8 @@
   </sheetPr>
   <dimension ref="A3:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2935,223 +2935,223 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:62" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="140"/>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="140"/>
-      <c r="AA1" s="140"/>
-      <c r="AB1" s="140"/>
-      <c r="AC1" s="140"/>
-      <c r="AD1" s="140"/>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="140"/>
-      <c r="AG1" s="140"/>
-      <c r="AH1" s="140"/>
-      <c r="AI1" s="140"/>
-      <c r="AJ1" s="140"/>
-      <c r="AK1" s="140"/>
-      <c r="AL1" s="140"/>
-      <c r="AM1" s="140"/>
-      <c r="AN1" s="140"/>
-      <c r="AO1" s="140"/>
-      <c r="AP1" s="140"/>
-      <c r="AQ1" s="140"/>
-      <c r="AR1" s="140"/>
-      <c r="AS1" s="140"/>
-      <c r="AT1" s="140"/>
-      <c r="AU1" s="140"/>
-      <c r="AV1" s="140"/>
-      <c r="AW1" s="140"/>
-      <c r="AX1" s="140"/>
-      <c r="AY1" s="140"/>
-      <c r="AZ1" s="140"/>
-      <c r="BA1" s="140"/>
-      <c r="BB1" s="140"/>
-      <c r="BC1" s="140"/>
-      <c r="BD1" s="140"/>
-      <c r="BE1" s="140"/>
-      <c r="BF1" s="140"/>
-      <c r="BG1" s="140"/>
-      <c r="BH1" s="140"/>
-      <c r="BI1" s="140"/>
-      <c r="BJ1" s="140"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
+      <c r="AH1" s="127"/>
+      <c r="AI1" s="127"/>
+      <c r="AJ1" s="127"/>
+      <c r="AK1" s="127"/>
+      <c r="AL1" s="127"/>
+      <c r="AM1" s="127"/>
+      <c r="AN1" s="127"/>
+      <c r="AO1" s="127"/>
+      <c r="AP1" s="127"/>
+      <c r="AQ1" s="127"/>
+      <c r="AR1" s="127"/>
+      <c r="AS1" s="127"/>
+      <c r="AT1" s="127"/>
+      <c r="AU1" s="127"/>
+      <c r="AV1" s="127"/>
+      <c r="AW1" s="127"/>
+      <c r="AX1" s="127"/>
+      <c r="AY1" s="127"/>
+      <c r="AZ1" s="127"/>
+      <c r="BA1" s="127"/>
+      <c r="BB1" s="127"/>
+      <c r="BC1" s="127"/>
+      <c r="BD1" s="127"/>
+      <c r="BE1" s="127"/>
+      <c r="BF1" s="127"/>
+      <c r="BG1" s="127"/>
+      <c r="BH1" s="127"/>
+      <c r="BI1" s="127"/>
+      <c r="BJ1" s="127"/>
     </row>
     <row r="2" spans="2:62" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="144" t="s">
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="142"/>
-      <c r="X2" s="142"/>
-      <c r="Y2" s="142"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="142"/>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="142"/>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="143"/>
-      <c r="AG2" s="145" t="s">
+      <c r="S2" s="129"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="129"/>
+      <c r="AA2" s="129"/>
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
+      <c r="AD2" s="129"/>
+      <c r="AE2" s="129"/>
+      <c r="AF2" s="130"/>
+      <c r="AG2" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="AH2" s="142"/>
-      <c r="AI2" s="142"/>
-      <c r="AJ2" s="142"/>
-      <c r="AK2" s="142"/>
-      <c r="AL2" s="142"/>
-      <c r="AM2" s="142"/>
-      <c r="AN2" s="142"/>
-      <c r="AO2" s="142"/>
-      <c r="AP2" s="142"/>
-      <c r="AQ2" s="142"/>
-      <c r="AR2" s="142"/>
-      <c r="AS2" s="142"/>
-      <c r="AT2" s="142"/>
-      <c r="AU2" s="143"/>
-      <c r="AV2" s="146" t="s">
+      <c r="AH2" s="129"/>
+      <c r="AI2" s="129"/>
+      <c r="AJ2" s="129"/>
+      <c r="AK2" s="129"/>
+      <c r="AL2" s="129"/>
+      <c r="AM2" s="129"/>
+      <c r="AN2" s="129"/>
+      <c r="AO2" s="129"/>
+      <c r="AP2" s="129"/>
+      <c r="AQ2" s="129"/>
+      <c r="AR2" s="129"/>
+      <c r="AS2" s="129"/>
+      <c r="AT2" s="129"/>
+      <c r="AU2" s="130"/>
+      <c r="AV2" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="AW2" s="142"/>
-      <c r="AX2" s="142"/>
-      <c r="AY2" s="142"/>
-      <c r="AZ2" s="142"/>
-      <c r="BA2" s="142"/>
-      <c r="BB2" s="142"/>
-      <c r="BC2" s="142"/>
-      <c r="BD2" s="142"/>
-      <c r="BE2" s="142"/>
-      <c r="BF2" s="142"/>
-      <c r="BG2" s="142"/>
-      <c r="BH2" s="142"/>
-      <c r="BI2" s="142"/>
-      <c r="BJ2" s="143"/>
+      <c r="AW2" s="129"/>
+      <c r="AX2" s="129"/>
+      <c r="AY2" s="129"/>
+      <c r="AZ2" s="129"/>
+      <c r="BA2" s="129"/>
+      <c r="BB2" s="129"/>
+      <c r="BC2" s="129"/>
+      <c r="BD2" s="129"/>
+      <c r="BE2" s="129"/>
+      <c r="BF2" s="129"/>
+      <c r="BG2" s="129"/>
+      <c r="BH2" s="129"/>
+      <c r="BI2" s="129"/>
+      <c r="BJ2" s="130"/>
     </row>
     <row r="3" spans="2:62" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="151" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="122"/>
       <c r="E3" s="122"/>
       <c r="F3" s="122"/>
       <c r="G3" s="123"/>
-      <c r="H3" s="150" t="s">
+      <c r="H3" s="121" t="s">
         <v>48</v>
       </c>
       <c r="I3" s="122"/>
       <c r="J3" s="122"/>
       <c r="K3" s="122"/>
       <c r="L3" s="123"/>
-      <c r="M3" s="150" t="s">
+      <c r="M3" s="121" t="s">
         <v>49</v>
       </c>
       <c r="N3" s="122"/>
       <c r="O3" s="122"/>
       <c r="P3" s="122"/>
       <c r="Q3" s="124"/>
-      <c r="R3" s="151" t="s">
+      <c r="R3" s="125" t="s">
         <v>50</v>
       </c>
       <c r="S3" s="122"/>
       <c r="T3" s="122"/>
       <c r="U3" s="122"/>
       <c r="V3" s="123"/>
-      <c r="W3" s="135" t="s">
+      <c r="W3" s="145" t="s">
         <v>51</v>
       </c>
       <c r="X3" s="122"/>
       <c r="Y3" s="122"/>
       <c r="Z3" s="122"/>
       <c r="AA3" s="123"/>
-      <c r="AB3" s="135" t="s">
+      <c r="AB3" s="145" t="s">
         <v>52</v>
       </c>
       <c r="AC3" s="122"/>
       <c r="AD3" s="122"/>
       <c r="AE3" s="122"/>
       <c r="AF3" s="124"/>
-      <c r="AG3" s="136" t="s">
+      <c r="AG3" s="146" t="s">
         <v>53</v>
       </c>
       <c r="AH3" s="122"/>
       <c r="AI3" s="122"/>
       <c r="AJ3" s="122"/>
       <c r="AK3" s="123"/>
-      <c r="AL3" s="137" t="s">
+      <c r="AL3" s="147" t="s">
         <v>54</v>
       </c>
       <c r="AM3" s="122"/>
       <c r="AN3" s="122"/>
       <c r="AO3" s="122"/>
       <c r="AP3" s="123"/>
-      <c r="AQ3" s="137" t="s">
+      <c r="AQ3" s="147" t="s">
         <v>55</v>
       </c>
       <c r="AR3" s="122"/>
       <c r="AS3" s="122"/>
       <c r="AT3" s="122"/>
       <c r="AU3" s="124"/>
-      <c r="AV3" s="138" t="s">
+      <c r="AV3" s="148" t="s">
         <v>56</v>
       </c>
       <c r="AW3" s="122"/>
       <c r="AX3" s="122"/>
       <c r="AY3" s="122"/>
       <c r="AZ3" s="123"/>
-      <c r="BA3" s="121" t="s">
+      <c r="BA3" s="134" t="s">
         <v>57</v>
       </c>
       <c r="BB3" s="122"/>
       <c r="BC3" s="122"/>
       <c r="BD3" s="122"/>
       <c r="BE3" s="123"/>
-      <c r="BF3" s="121" t="s">
+      <c r="BF3" s="134" t="s">
         <v>58</v>
       </c>
       <c r="BG3" s="122"/>
@@ -3160,7 +3160,7 @@
       <c r="BJ3" s="124"/>
     </row>
     <row r="4" spans="2:62" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="148"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="11">
         <v>2</v>
       </c>
@@ -3527,7 +3527,7 @@
       <c r="AH6" s="30"/>
       <c r="AI6" s="30"/>
       <c r="AJ6" s="30"/>
-      <c r="AK6" s="125" t="s">
+      <c r="AK6" s="135" t="s">
         <v>62</v>
       </c>
       <c r="AL6" s="35"/>
@@ -3557,7 +3557,7 @@
       <c r="BJ6" s="32"/>
     </row>
     <row r="7" spans="2:62" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="138" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="37" t="s">
@@ -3596,7 +3596,7 @@
       <c r="AH7" s="38"/>
       <c r="AI7" s="38"/>
       <c r="AJ7" s="38"/>
-      <c r="AK7" s="126"/>
+      <c r="AK7" s="136"/>
       <c r="AL7" s="46"/>
       <c r="AM7" s="46"/>
       <c r="AN7" s="46"/>
@@ -3624,7 +3624,7 @@
       <c r="BJ7" s="44"/>
     </row>
     <row r="8" spans="2:62" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="129"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="48" t="s">
         <v>65</v>
       </c>
@@ -3661,7 +3661,7 @@
       <c r="AH8" s="38"/>
       <c r="AI8" s="38"/>
       <c r="AJ8" s="38"/>
-      <c r="AK8" s="126"/>
+      <c r="AK8" s="136"/>
       <c r="AL8" s="46"/>
       <c r="AM8" s="46"/>
       <c r="AN8" s="46"/>
@@ -3728,7 +3728,7 @@
       <c r="AH9" s="38"/>
       <c r="AI9" s="38"/>
       <c r="AJ9" s="38"/>
-      <c r="AK9" s="126"/>
+      <c r="AK9" s="136"/>
       <c r="AL9" s="35"/>
       <c r="AM9" s="35"/>
       <c r="AN9" s="35"/>
@@ -3756,7 +3756,7 @@
       <c r="BJ9" s="32"/>
     </row>
     <row r="10" spans="2:62" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="140" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="51" t="s">
@@ -3795,7 +3795,7 @@
       <c r="AH10" s="38"/>
       <c r="AI10" s="38"/>
       <c r="AJ10" s="38"/>
-      <c r="AK10" s="126"/>
+      <c r="AK10" s="136"/>
       <c r="AL10" s="46"/>
       <c r="AM10" s="46"/>
       <c r="AN10" s="46"/>
@@ -3823,7 +3823,7 @@
       <c r="BJ10" s="44"/>
     </row>
     <row r="11" spans="2:62" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="129"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="51" t="s">
         <v>70</v>
       </c>
@@ -3860,7 +3860,7 @@
       <c r="AH11" s="38"/>
       <c r="AI11" s="38"/>
       <c r="AJ11" s="38"/>
-      <c r="AK11" s="126"/>
+      <c r="AK11" s="136"/>
       <c r="AL11" s="46"/>
       <c r="AM11" s="46"/>
       <c r="AN11" s="46"/>
@@ -3888,7 +3888,7 @@
       <c r="BJ11" s="44"/>
     </row>
     <row r="12" spans="2:62" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="129"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="51" t="s">
         <v>71</v>
       </c>
@@ -3925,7 +3925,7 @@
       <c r="AH12" s="38"/>
       <c r="AI12" s="38"/>
       <c r="AJ12" s="38"/>
-      <c r="AK12" s="126"/>
+      <c r="AK12" s="136"/>
       <c r="AL12" s="46"/>
       <c r="AM12" s="46"/>
       <c r="AN12" s="46"/>
@@ -3953,7 +3953,7 @@
       <c r="BJ12" s="44"/>
     </row>
     <row r="13" spans="2:62" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="129"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="51" t="s">
         <v>72</v>
       </c>
@@ -3990,7 +3990,7 @@
       <c r="AH13" s="38"/>
       <c r="AI13" s="38"/>
       <c r="AJ13" s="38"/>
-      <c r="AK13" s="126"/>
+      <c r="AK13" s="136"/>
       <c r="AL13" s="46"/>
       <c r="AM13" s="46"/>
       <c r="AN13" s="46"/>
@@ -4018,7 +4018,7 @@
       <c r="BJ13" s="44"/>
     </row>
     <row r="14" spans="2:62" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="131"/>
+      <c r="B14" s="141"/>
       <c r="C14" s="52" t="s">
         <v>73</v>
       </c>
@@ -4055,7 +4055,7 @@
       <c r="AH14" s="38"/>
       <c r="AI14" s="38"/>
       <c r="AJ14" s="38"/>
-      <c r="AK14" s="126"/>
+      <c r="AK14" s="136"/>
       <c r="AL14" s="53"/>
       <c r="AM14" s="53"/>
       <c r="AN14" s="53"/>
@@ -4122,7 +4122,7 @@
       <c r="AH15" s="38"/>
       <c r="AI15" s="38"/>
       <c r="AJ15" s="38"/>
-      <c r="AK15" s="126"/>
+      <c r="AK15" s="136"/>
       <c r="AL15" s="35"/>
       <c r="AM15" s="35"/>
       <c r="AN15" s="35"/>
@@ -4150,7 +4150,7 @@
       <c r="BJ15" s="32"/>
     </row>
     <row r="16" spans="2:62" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="142" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="57" t="s">
@@ -4189,7 +4189,7 @@
       <c r="AH16" s="38"/>
       <c r="AI16" s="38"/>
       <c r="AJ16" s="38"/>
-      <c r="AK16" s="126"/>
+      <c r="AK16" s="136"/>
       <c r="AL16" s="46"/>
       <c r="AM16" s="46"/>
       <c r="AN16" s="46"/>
@@ -4217,7 +4217,7 @@
       <c r="BJ16" s="44"/>
     </row>
     <row r="17" spans="2:62" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="129"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="58" t="s">
         <v>78</v>
       </c>
@@ -4254,7 +4254,7 @@
       <c r="AH17" s="38"/>
       <c r="AI17" s="38"/>
       <c r="AJ17" s="38"/>
-      <c r="AK17" s="126"/>
+      <c r="AK17" s="136"/>
       <c r="AL17" s="46"/>
       <c r="AM17" s="46"/>
       <c r="AN17" s="46"/>
@@ -4282,7 +4282,7 @@
       <c r="BJ17" s="44"/>
     </row>
     <row r="18" spans="2:62" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="131"/>
+      <c r="B18" s="141"/>
       <c r="C18" s="59" t="s">
         <v>79</v>
       </c>
@@ -4319,7 +4319,7 @@
       <c r="AH18" s="38"/>
       <c r="AI18" s="38"/>
       <c r="AJ18" s="38"/>
-      <c r="AK18" s="126"/>
+      <c r="AK18" s="136"/>
       <c r="AL18" s="53"/>
       <c r="AM18" s="53"/>
       <c r="AN18" s="53"/>
@@ -4386,7 +4386,7 @@
       <c r="AH19" s="38"/>
       <c r="AI19" s="38"/>
       <c r="AJ19" s="38"/>
-      <c r="AK19" s="126"/>
+      <c r="AK19" s="136"/>
       <c r="AL19" s="35"/>
       <c r="AM19" s="35"/>
       <c r="AN19" s="35"/>
@@ -4414,7 +4414,7 @@
       <c r="BJ19" s="32"/>
     </row>
     <row r="20" spans="2:62" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="133" t="s">
+      <c r="B20" s="143" t="s">
         <v>82</v>
       </c>
       <c r="C20" s="62" t="s">
@@ -4453,7 +4453,7 @@
       <c r="AH20" s="38"/>
       <c r="AI20" s="38"/>
       <c r="AJ20" s="38"/>
-      <c r="AK20" s="126"/>
+      <c r="AK20" s="136"/>
       <c r="AL20" s="46"/>
       <c r="AM20" s="46"/>
       <c r="AN20" s="46"/>
@@ -4481,7 +4481,7 @@
       <c r="BJ20" s="44"/>
     </row>
     <row r="21" spans="2:62" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="129"/>
+      <c r="B21" s="139"/>
       <c r="C21" s="62" t="s">
         <v>84</v>
       </c>
@@ -4518,7 +4518,7 @@
       <c r="AH21" s="38"/>
       <c r="AI21" s="38"/>
       <c r="AJ21" s="38"/>
-      <c r="AK21" s="126"/>
+      <c r="AK21" s="136"/>
       <c r="AL21" s="46"/>
       <c r="AM21" s="46"/>
       <c r="AN21" s="46"/>
@@ -4546,7 +4546,7 @@
       <c r="BJ21" s="44"/>
     </row>
     <row r="22" spans="2:62" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="131"/>
+      <c r="B22" s="141"/>
       <c r="C22" s="63" t="s">
         <v>85</v>
       </c>
@@ -4583,7 +4583,7 @@
       <c r="AH22" s="38"/>
       <c r="AI22" s="38"/>
       <c r="AJ22" s="38"/>
-      <c r="AK22" s="126"/>
+      <c r="AK22" s="136"/>
       <c r="AL22" s="53"/>
       <c r="AM22" s="53"/>
       <c r="AN22" s="53"/>
@@ -4650,7 +4650,7 @@
       <c r="AH23" s="38"/>
       <c r="AI23" s="38"/>
       <c r="AJ23" s="38"/>
-      <c r="AK23" s="126"/>
+      <c r="AK23" s="136"/>
       <c r="AL23" s="35"/>
       <c r="AM23" s="35"/>
       <c r="AN23" s="35"/>
@@ -4678,7 +4678,7 @@
       <c r="BJ23" s="32"/>
     </row>
     <row r="24" spans="2:62" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="134" t="s">
+      <c r="B24" s="144" t="s">
         <v>88</v>
       </c>
       <c r="C24" s="66" t="s">
@@ -4717,7 +4717,7 @@
       <c r="AH24" s="38"/>
       <c r="AI24" s="38"/>
       <c r="AJ24" s="38"/>
-      <c r="AK24" s="126"/>
+      <c r="AK24" s="136"/>
       <c r="AL24" s="46"/>
       <c r="AM24" s="46"/>
       <c r="AN24" s="46"/>
@@ -4745,7 +4745,7 @@
       <c r="BJ24" s="44"/>
     </row>
     <row r="25" spans="2:62" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="131"/>
+      <c r="B25" s="141"/>
       <c r="C25" s="67" t="s">
         <v>90</v>
       </c>
@@ -4782,7 +4782,7 @@
       <c r="AH25" s="38"/>
       <c r="AI25" s="38"/>
       <c r="AJ25" s="38"/>
-      <c r="AK25" s="127"/>
+      <c r="AK25" s="137"/>
       <c r="AL25" s="53"/>
       <c r="AM25" s="53"/>
       <c r="AN25" s="53"/>
@@ -5786,6 +5786,14 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="AK6:AK25"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="R3:V3"/>
@@ -5796,20 +5804,12 @@
     <mergeCell ref="AV2:BJ2"/>
     <mergeCell ref="BA3:BE3"/>
     <mergeCell ref="BF3:BJ3"/>
-    <mergeCell ref="AK6:AK25"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B24:B25"/>
     <mergeCell ref="W3:AA3"/>
     <mergeCell ref="AB3:AF3"/>
     <mergeCell ref="AG3:AK3"/>
     <mergeCell ref="AL3:AP3"/>
     <mergeCell ref="AQ3:AU3"/>
     <mergeCell ref="AV3:AZ3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5818,14 +5818,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520082BC-528F-4B7E-9789-5EAC0CFF2579}">
   <sheetPr>
-    <tabColor rgb="FF26504C"/>
+    <tabColor theme="9" tint="0.59999389629810485"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:BJ999"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5891,168 +5891,168 @@
       <c r="AZ1" s="68"/>
       <c r="BA1" s="68"/>
       <c r="BB1" s="68"/>
-      <c r="BE1" s="174" t="s">
+      <c r="BE1" s="152" t="s">
         <v>91</v>
       </c>
-      <c r="BF1" s="140"/>
-      <c r="BG1" s="140"/>
-      <c r="BH1" s="140"/>
-      <c r="BI1" s="140"/>
-      <c r="BJ1" s="140"/>
+      <c r="BF1" s="127"/>
+      <c r="BG1" s="127"/>
+      <c r="BH1" s="127"/>
+      <c r="BI1" s="127"/>
+      <c r="BJ1" s="127"/>
     </row>
     <row r="2" spans="2:62" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="144" t="s">
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="142"/>
-      <c r="X2" s="142"/>
-      <c r="Y2" s="142"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="142"/>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="142"/>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="143"/>
-      <c r="AG2" s="145" t="s">
+      <c r="S2" s="129"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="129"/>
+      <c r="AA2" s="129"/>
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
+      <c r="AD2" s="129"/>
+      <c r="AE2" s="129"/>
+      <c r="AF2" s="130"/>
+      <c r="AG2" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="AH2" s="142"/>
-      <c r="AI2" s="142"/>
-      <c r="AJ2" s="142"/>
-      <c r="AK2" s="142"/>
-      <c r="AL2" s="142"/>
-      <c r="AM2" s="142"/>
-      <c r="AN2" s="142"/>
-      <c r="AO2" s="142"/>
-      <c r="AP2" s="142"/>
-      <c r="AQ2" s="142"/>
-      <c r="AR2" s="142"/>
-      <c r="AS2" s="142"/>
-      <c r="AT2" s="142"/>
-      <c r="AU2" s="143"/>
-      <c r="AV2" s="146" t="s">
+      <c r="AH2" s="129"/>
+      <c r="AI2" s="129"/>
+      <c r="AJ2" s="129"/>
+      <c r="AK2" s="129"/>
+      <c r="AL2" s="129"/>
+      <c r="AM2" s="129"/>
+      <c r="AN2" s="129"/>
+      <c r="AO2" s="129"/>
+      <c r="AP2" s="129"/>
+      <c r="AQ2" s="129"/>
+      <c r="AR2" s="129"/>
+      <c r="AS2" s="129"/>
+      <c r="AT2" s="129"/>
+      <c r="AU2" s="130"/>
+      <c r="AV2" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="AW2" s="142"/>
-      <c r="AX2" s="142"/>
-      <c r="AY2" s="142"/>
-      <c r="AZ2" s="142"/>
-      <c r="BA2" s="142"/>
-      <c r="BB2" s="142"/>
-      <c r="BC2" s="142"/>
-      <c r="BD2" s="142"/>
-      <c r="BE2" s="142"/>
-      <c r="BF2" s="142"/>
-      <c r="BG2" s="142"/>
-      <c r="BH2" s="142"/>
-      <c r="BI2" s="142"/>
-      <c r="BJ2" s="143"/>
+      <c r="AW2" s="129"/>
+      <c r="AX2" s="129"/>
+      <c r="AY2" s="129"/>
+      <c r="AZ2" s="129"/>
+      <c r="BA2" s="129"/>
+      <c r="BB2" s="129"/>
+      <c r="BC2" s="129"/>
+      <c r="BD2" s="129"/>
+      <c r="BE2" s="129"/>
+      <c r="BF2" s="129"/>
+      <c r="BG2" s="129"/>
+      <c r="BH2" s="129"/>
+      <c r="BI2" s="129"/>
+      <c r="BJ2" s="130"/>
     </row>
     <row r="3" spans="2:62" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="151" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="122"/>
       <c r="E3" s="122"/>
       <c r="F3" s="122"/>
       <c r="G3" s="123"/>
-      <c r="H3" s="150" t="s">
+      <c r="H3" s="121" t="s">
         <v>48</v>
       </c>
       <c r="I3" s="122"/>
       <c r="J3" s="122"/>
       <c r="K3" s="122"/>
       <c r="L3" s="123"/>
-      <c r="M3" s="150" t="s">
+      <c r="M3" s="121" t="s">
         <v>49</v>
       </c>
       <c r="N3" s="122"/>
       <c r="O3" s="122"/>
       <c r="P3" s="122"/>
       <c r="Q3" s="124"/>
-      <c r="R3" s="151" t="s">
+      <c r="R3" s="125" t="s">
         <v>50</v>
       </c>
       <c r="S3" s="122"/>
       <c r="T3" s="122"/>
       <c r="U3" s="122"/>
       <c r="V3" s="123"/>
-      <c r="W3" s="135" t="s">
+      <c r="W3" s="145" t="s">
         <v>51</v>
       </c>
       <c r="X3" s="122"/>
       <c r="Y3" s="122"/>
       <c r="Z3" s="122"/>
       <c r="AA3" s="123"/>
-      <c r="AB3" s="135" t="s">
+      <c r="AB3" s="145" t="s">
         <v>52</v>
       </c>
       <c r="AC3" s="122"/>
       <c r="AD3" s="122"/>
       <c r="AE3" s="122"/>
       <c r="AF3" s="124"/>
-      <c r="AG3" s="136" t="s">
+      <c r="AG3" s="146" t="s">
         <v>53</v>
       </c>
       <c r="AH3" s="122"/>
       <c r="AI3" s="122"/>
       <c r="AJ3" s="122"/>
       <c r="AK3" s="123"/>
-      <c r="AL3" s="137" t="s">
+      <c r="AL3" s="147" t="s">
         <v>54</v>
       </c>
       <c r="AM3" s="122"/>
       <c r="AN3" s="122"/>
       <c r="AO3" s="122"/>
       <c r="AP3" s="123"/>
-      <c r="AQ3" s="137" t="s">
+      <c r="AQ3" s="147" t="s">
         <v>55</v>
       </c>
       <c r="AR3" s="122"/>
       <c r="AS3" s="122"/>
       <c r="AT3" s="122"/>
       <c r="AU3" s="124"/>
-      <c r="AV3" s="138" t="s">
+      <c r="AV3" s="148" t="s">
         <v>56</v>
       </c>
       <c r="AW3" s="122"/>
       <c r="AX3" s="122"/>
       <c r="AY3" s="122"/>
       <c r="AZ3" s="123"/>
-      <c r="BA3" s="121" t="s">
+      <c r="BA3" s="134" t="s">
         <v>57</v>
       </c>
       <c r="BB3" s="122"/>
       <c r="BC3" s="122"/>
       <c r="BD3" s="122"/>
       <c r="BE3" s="123"/>
-      <c r="BF3" s="121" t="s">
+      <c r="BF3" s="134" t="s">
         <v>58</v>
       </c>
       <c r="BG3" s="122"/>
@@ -6061,7 +6061,7 @@
       <c r="BJ3" s="124"/>
     </row>
     <row r="4" spans="2:62" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="148"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="11">
         <v>2</v>
       </c>
@@ -6400,10 +6400,10 @@
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
-      <c r="K6" s="166" t="s">
+      <c r="K6" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="L6" s="142"/>
+      <c r="L6" s="129"/>
       <c r="M6" s="154"/>
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
@@ -6428,7 +6428,7 @@
       <c r="AH6" s="30"/>
       <c r="AI6" s="30"/>
       <c r="AJ6" s="30"/>
-      <c r="AK6" s="167" t="s">
+      <c r="AK6" s="155" t="s">
         <v>62</v>
       </c>
       <c r="AL6" s="35"/>
@@ -6458,7 +6458,7 @@
       <c r="BJ6" s="32"/>
     </row>
     <row r="7" spans="2:62" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="138" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="45"/>
@@ -6470,10 +6470,10 @@
       <c r="I7" s="69"/>
       <c r="J7" s="69"/>
       <c r="K7" s="69"/>
-      <c r="L7" s="170" t="s">
+      <c r="L7" s="158" t="s">
         <v>93</v>
       </c>
-      <c r="M7" s="171"/>
+      <c r="M7" s="159"/>
       <c r="N7" s="70"/>
       <c r="O7" s="70"/>
       <c r="P7" s="70"/>
@@ -6497,7 +6497,7 @@
       <c r="AH7" s="38"/>
       <c r="AI7" s="38"/>
       <c r="AJ7" s="38"/>
-      <c r="AK7" s="168"/>
+      <c r="AK7" s="156"/>
       <c r="AL7" s="46"/>
       <c r="AM7" s="46"/>
       <c r="AN7" s="46"/>
@@ -6525,7 +6525,7 @@
       <c r="BJ7" s="44"/>
     </row>
     <row r="8" spans="2:62" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="129"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="45"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -6536,10 +6536,10 @@
       <c r="J8" s="69"/>
       <c r="K8" s="69"/>
       <c r="L8" s="69"/>
-      <c r="M8" s="172" t="s">
+      <c r="M8" s="160" t="s">
         <v>94</v>
       </c>
-      <c r="N8" s="157"/>
+      <c r="N8" s="161"/>
       <c r="O8" s="72"/>
       <c r="P8" s="38"/>
       <c r="Q8" s="44"/>
@@ -6562,7 +6562,7 @@
       <c r="AH8" s="38"/>
       <c r="AI8" s="38"/>
       <c r="AJ8" s="38"/>
-      <c r="AK8" s="168"/>
+      <c r="AK8" s="156"/>
       <c r="AL8" s="46"/>
       <c r="AM8" s="46"/>
       <c r="AN8" s="46"/>
@@ -6604,10 +6604,10 @@
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
       <c r="M9" s="30"/>
-      <c r="N9" s="173" t="s">
+      <c r="N9" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="142"/>
+      <c r="O9" s="129"/>
       <c r="P9" s="154"/>
       <c r="Q9" s="32"/>
       <c r="R9" s="33"/>
@@ -6629,7 +6629,7 @@
       <c r="AH9" s="30"/>
       <c r="AI9" s="30"/>
       <c r="AJ9" s="30"/>
-      <c r="AK9" s="168"/>
+      <c r="AK9" s="156"/>
       <c r="AL9" s="35"/>
       <c r="AM9" s="35"/>
       <c r="AN9" s="35"/>
@@ -6657,7 +6657,7 @@
       <c r="BJ9" s="32"/>
     </row>
     <row r="10" spans="2:62" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="140" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="45"/>
@@ -6673,7 +6673,7 @@
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
       <c r="O10" s="38"/>
-      <c r="P10" s="160" t="s">
+      <c r="P10" s="163" t="s">
         <v>69</v>
       </c>
       <c r="Q10" s="122"/>
@@ -6696,7 +6696,7 @@
       <c r="AH10" s="38"/>
       <c r="AI10" s="38"/>
       <c r="AJ10" s="38"/>
-      <c r="AK10" s="168"/>
+      <c r="AK10" s="156"/>
       <c r="AL10" s="46"/>
       <c r="AM10" s="46"/>
       <c r="AN10" s="46"/>
@@ -6724,7 +6724,7 @@
       <c r="BJ10" s="44"/>
     </row>
     <row r="11" spans="2:62" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="129"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="45"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
@@ -6737,7 +6737,7 @@
       <c r="L11" s="69"/>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
-      <c r="O11" s="160" t="s">
+      <c r="O11" s="163" t="s">
         <v>96</v>
       </c>
       <c r="P11" s="123"/>
@@ -6761,7 +6761,7 @@
       <c r="AH11" s="38"/>
       <c r="AI11" s="38"/>
       <c r="AJ11" s="38"/>
-      <c r="AK11" s="168"/>
+      <c r="AK11" s="156"/>
       <c r="AL11" s="46"/>
       <c r="AM11" s="46"/>
       <c r="AN11" s="46"/>
@@ -6789,7 +6789,7 @@
       <c r="BJ11" s="44"/>
     </row>
     <row r="12" spans="2:62" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="129"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="45"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
@@ -6803,7 +6803,7 @@
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
       <c r="O12" s="38"/>
-      <c r="P12" s="160" t="s">
+      <c r="P12" s="163" t="s">
         <v>71</v>
       </c>
       <c r="Q12" s="124"/>
@@ -6826,7 +6826,7 @@
       <c r="AH12" s="38"/>
       <c r="AI12" s="38"/>
       <c r="AJ12" s="38"/>
-      <c r="AK12" s="168"/>
+      <c r="AK12" s="156"/>
       <c r="AL12" s="46"/>
       <c r="AM12" s="46"/>
       <c r="AN12" s="46"/>
@@ -6854,7 +6854,7 @@
       <c r="BJ12" s="44"/>
     </row>
     <row r="13" spans="2:62" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="129"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="45"/>
       <c r="D13" s="38"/>
       <c r="E13" s="38"/>
@@ -6869,7 +6869,7 @@
       <c r="N13" s="38"/>
       <c r="O13" s="38"/>
       <c r="P13" s="38"/>
-      <c r="Q13" s="160" t="s">
+      <c r="Q13" s="163" t="s">
         <v>72</v>
       </c>
       <c r="R13" s="123"/>
@@ -6891,7 +6891,7 @@
       <c r="AH13" s="38"/>
       <c r="AI13" s="38"/>
       <c r="AJ13" s="38"/>
-      <c r="AK13" s="168"/>
+      <c r="AK13" s="156"/>
       <c r="AL13" s="46"/>
       <c r="AM13" s="46"/>
       <c r="AN13" s="46"/>
@@ -6919,7 +6919,7 @@
       <c r="BJ13" s="44"/>
     </row>
     <row r="14" spans="2:62" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="131"/>
+      <c r="B14" s="141"/>
       <c r="C14" s="42"/>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -6933,11 +6933,11 @@
       <c r="M14" s="40"/>
       <c r="N14" s="40"/>
       <c r="O14" s="40"/>
-      <c r="P14" s="161" t="s">
+      <c r="P14" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="158"/>
+      <c r="Q14" s="161"/>
+      <c r="R14" s="167"/>
       <c r="S14" s="40"/>
       <c r="T14" s="40"/>
       <c r="U14" s="40"/>
@@ -6956,7 +6956,7 @@
       <c r="AH14" s="40"/>
       <c r="AI14" s="40"/>
       <c r="AJ14" s="40"/>
-      <c r="AK14" s="168"/>
+      <c r="AK14" s="156"/>
       <c r="AL14" s="53"/>
       <c r="AM14" s="53"/>
       <c r="AN14" s="53"/>
@@ -7002,28 +7002,28 @@
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="32"/>
-      <c r="R15" s="162" t="s">
+      <c r="R15" s="169" t="s">
         <v>97</v>
       </c>
-      <c r="S15" s="142"/>
-      <c r="T15" s="142"/>
-      <c r="U15" s="142"/>
-      <c r="V15" s="142"/>
-      <c r="W15" s="142"/>
-      <c r="X15" s="142"/>
-      <c r="Y15" s="142"/>
-      <c r="Z15" s="142"/>
-      <c r="AA15" s="142"/>
-      <c r="AB15" s="142"/>
-      <c r="AC15" s="142"/>
-      <c r="AD15" s="142"/>
-      <c r="AE15" s="142"/>
-      <c r="AF15" s="142"/>
+      <c r="S15" s="129"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="129"/>
+      <c r="V15" s="129"/>
+      <c r="W15" s="129"/>
+      <c r="X15" s="129"/>
+      <c r="Y15" s="129"/>
+      <c r="Z15" s="129"/>
+      <c r="AA15" s="129"/>
+      <c r="AB15" s="129"/>
+      <c r="AC15" s="129"/>
+      <c r="AD15" s="129"/>
+      <c r="AE15" s="129"/>
+      <c r="AF15" s="129"/>
       <c r="AG15" s="154"/>
       <c r="AH15" s="30"/>
       <c r="AI15" s="30"/>
       <c r="AJ15" s="30"/>
-      <c r="AK15" s="168"/>
+      <c r="AK15" s="156"/>
       <c r="AL15" s="35"/>
       <c r="AM15" s="35"/>
       <c r="AN15" s="35"/>
@@ -7051,7 +7051,7 @@
       <c r="BJ15" s="32"/>
     </row>
     <row r="16" spans="2:62" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="142" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="45"/>
@@ -7070,7 +7070,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
-      <c r="S16" s="163" t="s">
+      <c r="S16" s="164" t="s">
         <v>77</v>
       </c>
       <c r="T16" s="122"/>
@@ -7090,7 +7090,7 @@
       <c r="AH16" s="38"/>
       <c r="AI16" s="38"/>
       <c r="AJ16" s="38"/>
-      <c r="AK16" s="168"/>
+      <c r="AK16" s="156"/>
       <c r="AL16" s="46"/>
       <c r="AM16" s="46"/>
       <c r="AN16" s="46"/>
@@ -7118,7 +7118,7 @@
       <c r="BJ16" s="44"/>
     </row>
     <row r="17" spans="2:62" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="129"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="45"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
@@ -7134,7 +7134,7 @@
       <c r="O17" s="38"/>
       <c r="P17" s="38"/>
       <c r="Q17" s="44"/>
-      <c r="R17" s="164" t="s">
+      <c r="R17" s="165" t="s">
         <v>78</v>
       </c>
       <c r="S17" s="122"/>
@@ -7155,7 +7155,7 @@
       <c r="AH17" s="38"/>
       <c r="AI17" s="38"/>
       <c r="AJ17" s="38"/>
-      <c r="AK17" s="168"/>
+      <c r="AK17" s="156"/>
       <c r="AL17" s="46"/>
       <c r="AM17" s="46"/>
       <c r="AN17" s="46"/>
@@ -7183,7 +7183,7 @@
       <c r="BJ17" s="44"/>
     </row>
     <row r="18" spans="2:62" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="131"/>
+      <c r="B18" s="141"/>
       <c r="C18" s="42"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -7202,11 +7202,11 @@
       <c r="R18" s="42"/>
       <c r="S18" s="40"/>
       <c r="T18" s="40"/>
-      <c r="U18" s="165" t="s">
+      <c r="U18" s="166" t="s">
         <v>79</v>
       </c>
-      <c r="V18" s="157"/>
-      <c r="W18" s="158"/>
+      <c r="V18" s="161"/>
+      <c r="W18" s="167"/>
       <c r="X18" s="43"/>
       <c r="Y18" s="43"/>
       <c r="Z18" s="43"/>
@@ -7220,7 +7220,7 @@
       <c r="AH18" s="40"/>
       <c r="AI18" s="40"/>
       <c r="AJ18" s="40"/>
-      <c r="AK18" s="168"/>
+      <c r="AK18" s="156"/>
       <c r="AL18" s="53"/>
       <c r="AM18" s="53"/>
       <c r="AN18" s="53"/>
@@ -7271,13 +7271,13 @@
       <c r="T19" s="30"/>
       <c r="U19" s="30"/>
       <c r="V19" s="30"/>
-      <c r="W19" s="153" t="s">
+      <c r="W19" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="X19" s="142"/>
-      <c r="Y19" s="142"/>
-      <c r="Z19" s="142"/>
-      <c r="AA19" s="142"/>
+      <c r="X19" s="129"/>
+      <c r="Y19" s="129"/>
+      <c r="Z19" s="129"/>
+      <c r="AA19" s="129"/>
       <c r="AB19" s="154"/>
       <c r="AC19" s="30"/>
       <c r="AD19" s="30"/>
@@ -7287,7 +7287,7 @@
       <c r="AH19" s="30"/>
       <c r="AI19" s="30"/>
       <c r="AJ19" s="30"/>
-      <c r="AK19" s="168"/>
+      <c r="AK19" s="156"/>
       <c r="AL19" s="35"/>
       <c r="AM19" s="35"/>
       <c r="AN19" s="35"/>
@@ -7315,7 +7315,7 @@
       <c r="BJ19" s="32"/>
     </row>
     <row r="20" spans="2:62" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="133" t="s">
+      <c r="B20" s="143" t="s">
         <v>82</v>
       </c>
       <c r="C20" s="45"/>
@@ -7340,7 +7340,7 @@
       <c r="V20" s="38"/>
       <c r="W20" s="71"/>
       <c r="X20" s="71"/>
-      <c r="Y20" s="155" t="s">
+      <c r="Y20" s="172" t="s">
         <v>83</v>
       </c>
       <c r="Z20" s="122"/>
@@ -7354,7 +7354,7 @@
       <c r="AH20" s="38"/>
       <c r="AI20" s="38"/>
       <c r="AJ20" s="38"/>
-      <c r="AK20" s="168"/>
+      <c r="AK20" s="156"/>
       <c r="AL20" s="46"/>
       <c r="AM20" s="46"/>
       <c r="AN20" s="46"/>
@@ -7382,7 +7382,7 @@
       <c r="BJ20" s="44"/>
     </row>
     <row r="21" spans="2:62" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="129"/>
+      <c r="B21" s="139"/>
       <c r="C21" s="45"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
@@ -7406,7 +7406,7 @@
       <c r="W21" s="71"/>
       <c r="X21" s="71"/>
       <c r="Y21" s="71"/>
-      <c r="Z21" s="155" t="s">
+      <c r="Z21" s="172" t="s">
         <v>98</v>
       </c>
       <c r="AA21" s="122"/>
@@ -7419,7 +7419,7 @@
       <c r="AH21" s="38"/>
       <c r="AI21" s="38"/>
       <c r="AJ21" s="38"/>
-      <c r="AK21" s="168"/>
+      <c r="AK21" s="156"/>
       <c r="AL21" s="46"/>
       <c r="AM21" s="46"/>
       <c r="AN21" s="46"/>
@@ -7447,7 +7447,7 @@
       <c r="BJ21" s="44"/>
     </row>
     <row r="22" spans="2:62" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="131"/>
+      <c r="B22" s="141"/>
       <c r="C22" s="42"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -7472,19 +7472,19 @@
       <c r="X22" s="43"/>
       <c r="Y22" s="43"/>
       <c r="Z22" s="43"/>
-      <c r="AA22" s="156" t="s">
+      <c r="AA22" s="173" t="s">
         <v>85</v>
       </c>
-      <c r="AB22" s="157"/>
-      <c r="AC22" s="157"/>
-      <c r="AD22" s="157"/>
-      <c r="AE22" s="157"/>
-      <c r="AF22" s="157"/>
-      <c r="AG22" s="157"/>
-      <c r="AH22" s="158"/>
+      <c r="AB22" s="161"/>
+      <c r="AC22" s="161"/>
+      <c r="AD22" s="161"/>
+      <c r="AE22" s="161"/>
+      <c r="AF22" s="161"/>
+      <c r="AG22" s="161"/>
+      <c r="AH22" s="167"/>
       <c r="AI22" s="40"/>
       <c r="AJ22" s="40"/>
-      <c r="AK22" s="168"/>
+      <c r="AK22" s="156"/>
       <c r="AL22" s="53"/>
       <c r="AM22" s="53"/>
       <c r="AN22" s="53"/>
@@ -7546,12 +7546,12 @@
       <c r="AE23" s="30"/>
       <c r="AF23" s="32"/>
       <c r="AG23" s="33"/>
-      <c r="AH23" s="159" t="s">
+      <c r="AH23" s="174" t="s">
         <v>99</v>
       </c>
-      <c r="AI23" s="142"/>
+      <c r="AI23" s="129"/>
       <c r="AJ23" s="154"/>
-      <c r="AK23" s="168"/>
+      <c r="AK23" s="156"/>
       <c r="AL23" s="35"/>
       <c r="AM23" s="35"/>
       <c r="AN23" s="35"/>
@@ -7579,7 +7579,7 @@
       <c r="BJ23" s="32"/>
     </row>
     <row r="24" spans="2:62" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="134" t="s">
+      <c r="B24" s="144" t="s">
         <v>88</v>
       </c>
       <c r="C24" s="45"/>
@@ -7614,11 +7614,11 @@
       <c r="AF24" s="44"/>
       <c r="AG24" s="45"/>
       <c r="AH24" s="38"/>
-      <c r="AI24" s="152" t="s">
+      <c r="AI24" s="170" t="s">
         <v>89</v>
       </c>
       <c r="AJ24" s="123"/>
-      <c r="AK24" s="168"/>
+      <c r="AK24" s="156"/>
       <c r="AL24" s="46"/>
       <c r="AM24" s="46"/>
       <c r="AN24" s="46"/>
@@ -7646,7 +7646,7 @@
       <c r="BJ24" s="44"/>
     </row>
     <row r="25" spans="2:62" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="131"/>
+      <c r="B25" s="141"/>
       <c r="C25" s="42"/>
       <c r="D25" s="40"/>
       <c r="E25" s="40"/>
@@ -7683,7 +7683,7 @@
       <c r="AJ25" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="AK25" s="169"/>
+      <c r="AK25" s="157"/>
       <c r="AL25" s="53"/>
       <c r="AM25" s="53"/>
       <c r="AN25" s="53"/>
@@ -8686,11 +8686,28 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="BE1:BJ1"/>
-    <mergeCell ref="C2:Q2"/>
-    <mergeCell ref="R2:AF2"/>
-    <mergeCell ref="AG2:AU2"/>
-    <mergeCell ref="AV2:BJ2"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="W19:AB19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="Y20:AD20"/>
+    <mergeCell ref="Z21:AE21"/>
+    <mergeCell ref="AA22:AH22"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="S16:AG16"/>
+    <mergeCell ref="R17:AD17"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="BA3:BE3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="R15:AG15"/>
     <mergeCell ref="BF3:BJ3"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="AK6:AK25"/>
@@ -8707,28 +8724,11 @@
     <mergeCell ref="AQ3:AU3"/>
     <mergeCell ref="AV3:AZ3"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="S16:AG16"/>
-    <mergeCell ref="R17:AD17"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="BA3:BE3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="R15:AG15"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="W19:AB19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="Y20:AD20"/>
-    <mergeCell ref="Z21:AE21"/>
-    <mergeCell ref="AA22:AH22"/>
-    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="BE1:BJ1"/>
+    <mergeCell ref="C2:Q2"/>
+    <mergeCell ref="R2:AF2"/>
+    <mergeCell ref="AG2:AU2"/>
+    <mergeCell ref="AV2:BJ2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="BE1" r:id="rId1" xr:uid="{C5EC4FDD-60DF-43E2-920C-C0170D342464}"/>
@@ -8780,7 +8780,7 @@
       <c r="H1" s="75"/>
       <c r="I1" s="74"/>
       <c r="J1" s="74"/>
-      <c r="K1" s="193"/>
+      <c r="K1" s="178"/>
       <c r="L1" s="76"/>
       <c r="M1" s="76"/>
       <c r="N1" s="76"/>
@@ -8927,7 +8927,7 @@
       <c r="H2" s="75"/>
       <c r="I2" s="74"/>
       <c r="J2" s="74"/>
-      <c r="K2" s="194"/>
+      <c r="K2" s="179"/>
       <c r="L2" s="76"/>
       <c r="M2" s="76"/>
       <c r="N2" s="76"/>
@@ -9069,7 +9069,7 @@
       </c>
       <c r="F3" s="81">
         <f ca="1">TODAY()</f>
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="G3" s="82"/>
       <c r="H3" s="82"/>
@@ -9077,358 +9077,358 @@
       <c r="J3" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="K3" s="195"/>
-      <c r="L3" s="196">
+      <c r="K3" s="180"/>
+      <c r="L3" s="181">
         <f>L6</f>
         <v>44927</v>
       </c>
-      <c r="M3" s="186"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="186"/>
-      <c r="S3" s="186"/>
-      <c r="T3" s="186"/>
-      <c r="U3" s="186"/>
-      <c r="V3" s="186"/>
-      <c r="W3" s="186"/>
-      <c r="X3" s="186"/>
-      <c r="Y3" s="186"/>
-      <c r="Z3" s="186"/>
-      <c r="AA3" s="186"/>
-      <c r="AB3" s="186"/>
-      <c r="AC3" s="186"/>
-      <c r="AD3" s="186"/>
-      <c r="AE3" s="186"/>
-      <c r="AF3" s="186"/>
-      <c r="AG3" s="186"/>
-      <c r="AH3" s="186"/>
-      <c r="AI3" s="186"/>
-      <c r="AJ3" s="186"/>
-      <c r="AK3" s="186"/>
-      <c r="AL3" s="186"/>
-      <c r="AM3" s="186"/>
-      <c r="AN3" s="186"/>
-      <c r="AO3" s="186"/>
-      <c r="AP3" s="187"/>
-      <c r="AQ3" s="197">
+      <c r="M3" s="176"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="176"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="176"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="176"/>
+      <c r="W3" s="176"/>
+      <c r="X3" s="176"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="176"/>
+      <c r="AA3" s="176"/>
+      <c r="AB3" s="176"/>
+      <c r="AC3" s="176"/>
+      <c r="AD3" s="176"/>
+      <c r="AE3" s="176"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="176"/>
+      <c r="AH3" s="176"/>
+      <c r="AI3" s="176"/>
+      <c r="AJ3" s="176"/>
+      <c r="AK3" s="176"/>
+      <c r="AL3" s="176"/>
+      <c r="AM3" s="176"/>
+      <c r="AN3" s="176"/>
+      <c r="AO3" s="176"/>
+      <c r="AP3" s="177"/>
+      <c r="AQ3" s="182">
         <f>AQ6</f>
         <v>44958</v>
       </c>
-      <c r="AR3" s="186"/>
-      <c r="AS3" s="186"/>
-      <c r="AT3" s="186"/>
-      <c r="AU3" s="186"/>
-      <c r="AV3" s="186"/>
-      <c r="AW3" s="186"/>
-      <c r="AX3" s="186"/>
-      <c r="AY3" s="186"/>
-      <c r="AZ3" s="186"/>
-      <c r="BA3" s="186"/>
-      <c r="BB3" s="186"/>
-      <c r="BC3" s="186"/>
-      <c r="BD3" s="186"/>
-      <c r="BE3" s="186"/>
-      <c r="BF3" s="186"/>
-      <c r="BG3" s="186"/>
-      <c r="BH3" s="186"/>
-      <c r="BI3" s="186"/>
-      <c r="BJ3" s="186"/>
-      <c r="BK3" s="186"/>
-      <c r="BL3" s="186"/>
-      <c r="BM3" s="186"/>
-      <c r="BN3" s="186"/>
-      <c r="BO3" s="186"/>
-      <c r="BP3" s="186"/>
-      <c r="BQ3" s="186"/>
-      <c r="BR3" s="186"/>
-      <c r="BS3" s="186"/>
-      <c r="BT3" s="186"/>
-      <c r="BU3" s="187"/>
-      <c r="BV3" s="198">
+      <c r="AR3" s="176"/>
+      <c r="AS3" s="176"/>
+      <c r="AT3" s="176"/>
+      <c r="AU3" s="176"/>
+      <c r="AV3" s="176"/>
+      <c r="AW3" s="176"/>
+      <c r="AX3" s="176"/>
+      <c r="AY3" s="176"/>
+      <c r="AZ3" s="176"/>
+      <c r="BA3" s="176"/>
+      <c r="BB3" s="176"/>
+      <c r="BC3" s="176"/>
+      <c r="BD3" s="176"/>
+      <c r="BE3" s="176"/>
+      <c r="BF3" s="176"/>
+      <c r="BG3" s="176"/>
+      <c r="BH3" s="176"/>
+      <c r="BI3" s="176"/>
+      <c r="BJ3" s="176"/>
+      <c r="BK3" s="176"/>
+      <c r="BL3" s="176"/>
+      <c r="BM3" s="176"/>
+      <c r="BN3" s="176"/>
+      <c r="BO3" s="176"/>
+      <c r="BP3" s="176"/>
+      <c r="BQ3" s="176"/>
+      <c r="BR3" s="176"/>
+      <c r="BS3" s="176"/>
+      <c r="BT3" s="176"/>
+      <c r="BU3" s="177"/>
+      <c r="BV3" s="183">
         <f>BV6</f>
         <v>44989</v>
       </c>
-      <c r="BW3" s="186"/>
-      <c r="BX3" s="186"/>
-      <c r="BY3" s="186"/>
-      <c r="BZ3" s="186"/>
-      <c r="CA3" s="186"/>
-      <c r="CB3" s="186"/>
-      <c r="CC3" s="186"/>
-      <c r="CD3" s="186"/>
-      <c r="CE3" s="186"/>
-      <c r="CF3" s="186"/>
-      <c r="CG3" s="186"/>
-      <c r="CH3" s="186"/>
-      <c r="CI3" s="186"/>
-      <c r="CJ3" s="186"/>
-      <c r="CK3" s="186"/>
-      <c r="CL3" s="186"/>
-      <c r="CM3" s="186"/>
-      <c r="CN3" s="186"/>
-      <c r="CO3" s="186"/>
-      <c r="CP3" s="186"/>
-      <c r="CQ3" s="186"/>
-      <c r="CR3" s="186"/>
-      <c r="CS3" s="186"/>
-      <c r="CT3" s="186"/>
-      <c r="CU3" s="186"/>
-      <c r="CV3" s="186"/>
-      <c r="CW3" s="186"/>
-      <c r="CX3" s="186"/>
-      <c r="CY3" s="187"/>
-      <c r="CZ3" s="199">
+      <c r="BW3" s="176"/>
+      <c r="BX3" s="176"/>
+      <c r="BY3" s="176"/>
+      <c r="BZ3" s="176"/>
+      <c r="CA3" s="176"/>
+      <c r="CB3" s="176"/>
+      <c r="CC3" s="176"/>
+      <c r="CD3" s="176"/>
+      <c r="CE3" s="176"/>
+      <c r="CF3" s="176"/>
+      <c r="CG3" s="176"/>
+      <c r="CH3" s="176"/>
+      <c r="CI3" s="176"/>
+      <c r="CJ3" s="176"/>
+      <c r="CK3" s="176"/>
+      <c r="CL3" s="176"/>
+      <c r="CM3" s="176"/>
+      <c r="CN3" s="176"/>
+      <c r="CO3" s="176"/>
+      <c r="CP3" s="176"/>
+      <c r="CQ3" s="176"/>
+      <c r="CR3" s="176"/>
+      <c r="CS3" s="176"/>
+      <c r="CT3" s="176"/>
+      <c r="CU3" s="176"/>
+      <c r="CV3" s="176"/>
+      <c r="CW3" s="176"/>
+      <c r="CX3" s="176"/>
+      <c r="CY3" s="177"/>
+      <c r="CZ3" s="184">
         <f>CZ6</f>
         <v>45019</v>
       </c>
-      <c r="DA3" s="186"/>
-      <c r="DB3" s="186"/>
-      <c r="DC3" s="186"/>
-      <c r="DD3" s="186"/>
-      <c r="DE3" s="186"/>
-      <c r="DF3" s="186"/>
-      <c r="DG3" s="186"/>
-      <c r="DH3" s="186"/>
-      <c r="DI3" s="186"/>
-      <c r="DJ3" s="186"/>
-      <c r="DK3" s="186"/>
-      <c r="DL3" s="186"/>
-      <c r="DM3" s="186"/>
-      <c r="DN3" s="186"/>
-      <c r="DO3" s="186"/>
-      <c r="DP3" s="186"/>
-      <c r="DQ3" s="186"/>
-      <c r="DR3" s="186"/>
-      <c r="DS3" s="186"/>
-      <c r="DT3" s="186"/>
-      <c r="DU3" s="186"/>
-      <c r="DV3" s="186"/>
-      <c r="DW3" s="186"/>
-      <c r="DX3" s="186"/>
-      <c r="DY3" s="186"/>
-      <c r="DZ3" s="186"/>
-      <c r="EA3" s="186"/>
-      <c r="EB3" s="186"/>
-      <c r="EC3" s="186"/>
-      <c r="ED3" s="187"/>
-      <c r="EE3" s="200">
+      <c r="DA3" s="176"/>
+      <c r="DB3" s="176"/>
+      <c r="DC3" s="176"/>
+      <c r="DD3" s="176"/>
+      <c r="DE3" s="176"/>
+      <c r="DF3" s="176"/>
+      <c r="DG3" s="176"/>
+      <c r="DH3" s="176"/>
+      <c r="DI3" s="176"/>
+      <c r="DJ3" s="176"/>
+      <c r="DK3" s="176"/>
+      <c r="DL3" s="176"/>
+      <c r="DM3" s="176"/>
+      <c r="DN3" s="176"/>
+      <c r="DO3" s="176"/>
+      <c r="DP3" s="176"/>
+      <c r="DQ3" s="176"/>
+      <c r="DR3" s="176"/>
+      <c r="DS3" s="176"/>
+      <c r="DT3" s="176"/>
+      <c r="DU3" s="176"/>
+      <c r="DV3" s="176"/>
+      <c r="DW3" s="176"/>
+      <c r="DX3" s="176"/>
+      <c r="DY3" s="176"/>
+      <c r="DZ3" s="176"/>
+      <c r="EA3" s="176"/>
+      <c r="EB3" s="176"/>
+      <c r="EC3" s="176"/>
+      <c r="ED3" s="177"/>
+      <c r="EE3" s="175">
         <f>EE6</f>
         <v>45050</v>
       </c>
-      <c r="EF3" s="186"/>
-      <c r="EG3" s="186"/>
-      <c r="EH3" s="186"/>
-      <c r="EI3" s="186"/>
-      <c r="EJ3" s="186"/>
-      <c r="EK3" s="187"/>
+      <c r="EF3" s="176"/>
+      <c r="EG3" s="176"/>
+      <c r="EH3" s="176"/>
+      <c r="EI3" s="176"/>
+      <c r="EJ3" s="176"/>
+      <c r="EK3" s="177"/>
     </row>
     <row r="4" spans="1:141" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="190" t="s">
+      <c r="B4" s="186" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="190" t="s">
+      <c r="C4" s="186" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="190" t="s">
+      <c r="D4" s="186" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="190" t="s">
+      <c r="E4" s="186" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="190" t="s">
+      <c r="F4" s="186" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="188" t="s">
+      <c r="G4" s="192" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="188" t="s">
+      <c r="H4" s="192" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="190" t="s">
+      <c r="I4" s="186" t="s">
         <v>132</v>
       </c>
-      <c r="J4" s="191" t="s">
+      <c r="J4" s="193" t="s">
         <v>133</v>
       </c>
-      <c r="K4" s="190" t="s">
+      <c r="K4" s="186" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="185" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="186"/>
-      <c r="N4" s="186"/>
-      <c r="O4" s="187"/>
+      <c r="M4" s="176"/>
+      <c r="N4" s="176"/>
+      <c r="O4" s="177"/>
       <c r="P4" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="Q4" s="186"/>
-      <c r="R4" s="186"/>
-      <c r="S4" s="186"/>
-      <c r="T4" s="186"/>
-      <c r="U4" s="186"/>
-      <c r="V4" s="187"/>
+      <c r="Q4" s="176"/>
+      <c r="R4" s="176"/>
+      <c r="S4" s="176"/>
+      <c r="T4" s="176"/>
+      <c r="U4" s="176"/>
+      <c r="V4" s="177"/>
       <c r="W4" s="185" t="s">
         <v>104</v>
       </c>
-      <c r="X4" s="186"/>
-      <c r="Y4" s="186"/>
-      <c r="Z4" s="186"/>
-      <c r="AA4" s="186"/>
-      <c r="AB4" s="186"/>
-      <c r="AC4" s="187"/>
+      <c r="X4" s="176"/>
+      <c r="Y4" s="176"/>
+      <c r="Z4" s="176"/>
+      <c r="AA4" s="176"/>
+      <c r="AB4" s="176"/>
+      <c r="AC4" s="177"/>
       <c r="AD4" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="AE4" s="186"/>
-      <c r="AF4" s="186"/>
-      <c r="AG4" s="186"/>
-      <c r="AH4" s="186"/>
-      <c r="AI4" s="186"/>
-      <c r="AJ4" s="187"/>
+      <c r="AE4" s="176"/>
+      <c r="AF4" s="176"/>
+      <c r="AG4" s="176"/>
+      <c r="AH4" s="176"/>
+      <c r="AI4" s="176"/>
+      <c r="AJ4" s="177"/>
       <c r="AK4" s="185" t="s">
         <v>106</v>
       </c>
-      <c r="AL4" s="186"/>
-      <c r="AM4" s="186"/>
-      <c r="AN4" s="186"/>
-      <c r="AO4" s="186"/>
-      <c r="AP4" s="186"/>
-      <c r="AQ4" s="187"/>
+      <c r="AL4" s="176"/>
+      <c r="AM4" s="176"/>
+      <c r="AN4" s="176"/>
+      <c r="AO4" s="176"/>
+      <c r="AP4" s="176"/>
+      <c r="AQ4" s="177"/>
       <c r="AR4" s="185" t="s">
         <v>107</v>
       </c>
-      <c r="AS4" s="186"/>
-      <c r="AT4" s="186"/>
-      <c r="AU4" s="186"/>
-      <c r="AV4" s="186"/>
-      <c r="AW4" s="186"/>
-      <c r="AX4" s="187"/>
+      <c r="AS4" s="176"/>
+      <c r="AT4" s="176"/>
+      <c r="AU4" s="176"/>
+      <c r="AV4" s="176"/>
+      <c r="AW4" s="176"/>
+      <c r="AX4" s="177"/>
       <c r="AY4" s="185" t="s">
         <v>108</v>
       </c>
-      <c r="AZ4" s="186"/>
-      <c r="BA4" s="186"/>
-      <c r="BB4" s="186"/>
-      <c r="BC4" s="186"/>
-      <c r="BD4" s="186"/>
-      <c r="BE4" s="187"/>
+      <c r="AZ4" s="176"/>
+      <c r="BA4" s="176"/>
+      <c r="BB4" s="176"/>
+      <c r="BC4" s="176"/>
+      <c r="BD4" s="176"/>
+      <c r="BE4" s="177"/>
       <c r="BF4" s="185" t="s">
         <v>109</v>
       </c>
-      <c r="BG4" s="186"/>
-      <c r="BH4" s="186"/>
-      <c r="BI4" s="186"/>
-      <c r="BJ4" s="186"/>
-      <c r="BK4" s="186"/>
-      <c r="BL4" s="187"/>
+      <c r="BG4" s="176"/>
+      <c r="BH4" s="176"/>
+      <c r="BI4" s="176"/>
+      <c r="BJ4" s="176"/>
+      <c r="BK4" s="176"/>
+      <c r="BL4" s="177"/>
       <c r="BM4" s="185" t="s">
         <v>110</v>
       </c>
-      <c r="BN4" s="186"/>
-      <c r="BO4" s="186"/>
-      <c r="BP4" s="186"/>
-      <c r="BQ4" s="186"/>
-      <c r="BR4" s="186"/>
-      <c r="BS4" s="187"/>
+      <c r="BN4" s="176"/>
+      <c r="BO4" s="176"/>
+      <c r="BP4" s="176"/>
+      <c r="BQ4" s="176"/>
+      <c r="BR4" s="176"/>
+      <c r="BS4" s="177"/>
       <c r="BT4" s="185" t="s">
         <v>111</v>
       </c>
-      <c r="BU4" s="186"/>
-      <c r="BV4" s="186"/>
-      <c r="BW4" s="186"/>
-      <c r="BX4" s="186"/>
-      <c r="BY4" s="186"/>
-      <c r="BZ4" s="187"/>
+      <c r="BU4" s="176"/>
+      <c r="BV4" s="176"/>
+      <c r="BW4" s="176"/>
+      <c r="BX4" s="176"/>
+      <c r="BY4" s="176"/>
+      <c r="BZ4" s="177"/>
       <c r="CA4" s="185" t="s">
         <v>112</v>
       </c>
-      <c r="CB4" s="186"/>
-      <c r="CC4" s="186"/>
-      <c r="CD4" s="186"/>
-      <c r="CE4" s="186"/>
-      <c r="CF4" s="186"/>
-      <c r="CG4" s="187"/>
+      <c r="CB4" s="176"/>
+      <c r="CC4" s="176"/>
+      <c r="CD4" s="176"/>
+      <c r="CE4" s="176"/>
+      <c r="CF4" s="176"/>
+      <c r="CG4" s="177"/>
       <c r="CH4" s="185" t="s">
         <v>113</v>
       </c>
-      <c r="CI4" s="186"/>
-      <c r="CJ4" s="186"/>
-      <c r="CK4" s="186"/>
-      <c r="CL4" s="186"/>
-      <c r="CM4" s="186"/>
-      <c r="CN4" s="187"/>
+      <c r="CI4" s="176"/>
+      <c r="CJ4" s="176"/>
+      <c r="CK4" s="176"/>
+      <c r="CL4" s="176"/>
+      <c r="CM4" s="176"/>
+      <c r="CN4" s="177"/>
       <c r="CO4" s="185" t="s">
         <v>114</v>
       </c>
-      <c r="CP4" s="186"/>
-      <c r="CQ4" s="186"/>
-      <c r="CR4" s="186"/>
-      <c r="CS4" s="186"/>
-      <c r="CT4" s="186"/>
-      <c r="CU4" s="187"/>
+      <c r="CP4" s="176"/>
+      <c r="CQ4" s="176"/>
+      <c r="CR4" s="176"/>
+      <c r="CS4" s="176"/>
+      <c r="CT4" s="176"/>
+      <c r="CU4" s="177"/>
       <c r="CV4" s="185" t="s">
         <v>115</v>
       </c>
-      <c r="CW4" s="186"/>
-      <c r="CX4" s="186"/>
-      <c r="CY4" s="186"/>
-      <c r="CZ4" s="186"/>
-      <c r="DA4" s="186"/>
-      <c r="DB4" s="187"/>
+      <c r="CW4" s="176"/>
+      <c r="CX4" s="176"/>
+      <c r="CY4" s="176"/>
+      <c r="CZ4" s="176"/>
+      <c r="DA4" s="176"/>
+      <c r="DB4" s="177"/>
       <c r="DC4" s="185" t="s">
         <v>116</v>
       </c>
-      <c r="DD4" s="186"/>
-      <c r="DE4" s="186"/>
-      <c r="DF4" s="186"/>
-      <c r="DG4" s="186"/>
-      <c r="DH4" s="186"/>
-      <c r="DI4" s="187"/>
+      <c r="DD4" s="176"/>
+      <c r="DE4" s="176"/>
+      <c r="DF4" s="176"/>
+      <c r="DG4" s="176"/>
+      <c r="DH4" s="176"/>
+      <c r="DI4" s="177"/>
       <c r="DJ4" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="DK4" s="186"/>
-      <c r="DL4" s="186"/>
-      <c r="DM4" s="186"/>
-      <c r="DN4" s="186"/>
-      <c r="DO4" s="186"/>
-      <c r="DP4" s="187"/>
+      <c r="DK4" s="176"/>
+      <c r="DL4" s="176"/>
+      <c r="DM4" s="176"/>
+      <c r="DN4" s="176"/>
+      <c r="DO4" s="176"/>
+      <c r="DP4" s="177"/>
       <c r="DQ4" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="DR4" s="186"/>
-      <c r="DS4" s="186"/>
-      <c r="DT4" s="186"/>
-      <c r="DU4" s="186"/>
-      <c r="DV4" s="186"/>
-      <c r="DW4" s="187"/>
+      <c r="DR4" s="176"/>
+      <c r="DS4" s="176"/>
+      <c r="DT4" s="176"/>
+      <c r="DU4" s="176"/>
+      <c r="DV4" s="176"/>
+      <c r="DW4" s="177"/>
       <c r="DX4" s="185" t="s">
         <v>119</v>
       </c>
-      <c r="DY4" s="186"/>
-      <c r="DZ4" s="186"/>
-      <c r="EA4" s="186"/>
-      <c r="EB4" s="186"/>
-      <c r="EC4" s="186"/>
-      <c r="ED4" s="187"/>
+      <c r="DY4" s="176"/>
+      <c r="DZ4" s="176"/>
+      <c r="EA4" s="176"/>
+      <c r="EB4" s="176"/>
+      <c r="EC4" s="176"/>
+      <c r="ED4" s="177"/>
       <c r="EE4" s="185" t="s">
         <v>120</v>
       </c>
-      <c r="EF4" s="186"/>
-      <c r="EG4" s="186"/>
-      <c r="EH4" s="186"/>
-      <c r="EI4" s="186"/>
-      <c r="EJ4" s="186"/>
-      <c r="EK4" s="187"/>
+      <c r="EF4" s="176"/>
+      <c r="EG4" s="176"/>
+      <c r="EH4" s="176"/>
+      <c r="EI4" s="176"/>
+      <c r="EJ4" s="176"/>
+      <c r="EK4" s="177"/>
     </row>
     <row r="5" spans="1:141" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="192"/>
+      <c r="A5" s="187"/>
       <c r="B5" s="189"/>
       <c r="C5" s="189"/>
       <c r="D5" s="189"/>
@@ -9961,17 +9961,17 @@
       </c>
     </row>
     <row r="6" spans="1:141" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="180"/>
-      <c r="B6" s="176"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="176"/>
-      <c r="K6" s="176"/>
+      <c r="A6" s="188"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="190"/>
+      <c r="J6" s="190"/>
+      <c r="K6" s="190"/>
       <c r="L6" s="88">
         <f>E3</f>
         <v>44927</v>
@@ -10637,40 +10637,40 @@
       <c r="EK7" s="98"/>
     </row>
     <row r="8" spans="1:141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="179">
+      <c r="A8" s="194">
         <v>70914</v>
       </c>
-      <c r="B8" s="177" t="str">
+      <c r="B8" s="195" t="str">
         <f>Overview!$B$4</f>
         <v>Project Name</v>
       </c>
-      <c r="C8" s="177" t="s">
+      <c r="C8" s="195" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="177" t="s">
+      <c r="D8" s="195" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="182" t="s">
+      <c r="E8" s="197" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="184" t="s">
+      <c r="F8" s="191" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="175">
+      <c r="G8" s="199">
         <v>44928</v>
       </c>
-      <c r="H8" s="175">
+      <c r="H8" s="199">
         <f>IF(G8&lt;&gt;"",G8+I8-1,)</f>
         <v>44932</v>
       </c>
-      <c r="I8" s="177">
+      <c r="I8" s="195">
         <v>5</v>
       </c>
-      <c r="J8" s="177">
+      <c r="J8" s="195">
         <f>IF(G8&lt;&gt;"",IF(WEEKDAY(H8)=7,NETWORKDAYS(G8,H8)&amp;"+T7",IF(WEEKDAY(H8)=1,NETWORKDAYS(G8,H8)&amp;"+T7,CN",NETWORKDAYS(G8,H8))))</f>
         <v>5</v>
       </c>
-      <c r="K8" s="178" t="s">
+      <c r="K8" s="200" t="s">
         <v>32</v>
       </c>
       <c r="L8" s="102" t="str">
@@ -11195,17 +11195,17 @@
       </c>
     </row>
     <row r="9" spans="1:141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="180"/>
-      <c r="B9" s="176"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="176"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="176"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="176"/>
-      <c r="K9" s="176"/>
+      <c r="A9" s="188"/>
+      <c r="B9" s="190"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="190"/>
+      <c r="I9" s="190"/>
+      <c r="J9" s="190"/>
+      <c r="K9" s="190"/>
       <c r="L9" s="108"/>
       <c r="M9" s="109"/>
       <c r="N9" s="109"/>
@@ -14824,27 +14824,16 @@
   </sheetData>
   <autoFilter ref="A7:EK9" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="47">
-    <mergeCell ref="EE3:EK3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L3:AP3"/>
-    <mergeCell ref="AQ3:BU3"/>
-    <mergeCell ref="BV3:CY3"/>
-    <mergeCell ref="CZ3:ED3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="EE4:EK4"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="CV4:DB4"/>
     <mergeCell ref="DC4:DI4"/>
@@ -14861,16 +14850,27 @@
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="J4:J6"/>
     <mergeCell ref="K4:K6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="EE3:EK3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L3:AP3"/>
+    <mergeCell ref="AQ3:BU3"/>
+    <mergeCell ref="BV3:CY3"/>
+    <mergeCell ref="CZ3:ED3"/>
   </mergeCells>
   <conditionalFormatting sqref="L9:EK9">
     <cfRule type="expression" dxfId="12" priority="38">
